--- a/biology/Zoologie/Fusigobius/Fusigobius.xlsx
+++ b/biology/Zoologie/Fusigobius/Fusigobius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fusigobius est un genre de poissons marins de la famille des Gobiidae (les « gobies » ; ordre des Gobiiformes).
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (10 mars 2024)[1] :
-Fusigobius aureus Chen &amp; Shao, 1997[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (10 mars 2024) :
+Fusigobius aureus Chen &amp; Shao, 1997
 Fusigobius duospilus Hoese &amp; Reader, 1985
 Fusigobius gracilis (Randall, 2001)
 Fusigobius humeralis (Randall, 2001)
 Fusigobius inframaculatus (Randall, 1994)
-Fusigobius longispinus Goren, 1978[3]
+Fusigobius longispinus Goren, 1978
 Fusigobius maximus (Randall, 2001)
 Fusigobius melacron (Randall, 2001)
 Fusigobius neophytus (Günther, 1877)
@@ -558,10 +572,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Fusigobius Whitley, 1930[1],[4]. Son espèce type est Gobius neophytus Günther, 1877, rebaptisée Fusigobius neophytus (Günther, 1877)[4].
-Fusigobius a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Fusigobius Whitley, 1930,. Son espèce type est Gobius neophytus Günther, 1877, rebaptisée Fusigobius neophytus (Günther, 1877).
+Fusigobius a pour synonyme :
 Thalassogobius Herre, 1953</t>
         </is>
       </c>
@@ -590,7 +606,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Gilbert P. Whitley, « Additions to the check-list of the fishes of New South Wales (No. 3) », Australian Zoologist, Sydney, Royal Zoological Society of New South Wales (d), vol. 6, no 2,‎ 14 janvier 1930, p. 117-123 (ISSN 0067-2238 et 2204-2105, OCLC 1782007, lire en ligne)</t>
         </is>
